--- a/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
+++ b/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138BB87-26D5-4390-B18D-7CB6C8D5A433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E82137-D857-4894-BCF2-E4D5BB114F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>字段名</t>
   </si>
@@ -140,6 +140,22 @@
   </si>
   <si>
     <t>光缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_section_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光放段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +489,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,7 +660,56 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>

--- a/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
+++ b/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E82137-D857-4894-BCF2-E4D5BB114F91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FF6112-359A-4252-8632-964E1ABA2194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>字段名</t>
   </si>
@@ -156,6 +156,26 @@
   </si>
   <si>
     <t>光放段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rack_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelf_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +509,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,19 +597,19 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -609,13 +629,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -624,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -635,13 +655,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -650,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -661,13 +681,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -676,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -687,13 +707,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -708,6 +728,58 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
+++ b/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FF6112-359A-4252-8632-964E1ABA2194}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489379E7-4944-489F-9288-4A6FB95DC604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optical_cable.光缆表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>敷设方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +172,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optical_cable.光缆表.xlsm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -506,16 +506,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
@@ -598,18 +599,18 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -629,13 +630,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -658,10 +659,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -681,13 +682,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -696,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -707,13 +708,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -722,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -733,13 +734,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -759,13 +760,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -774,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>4</v>

--- a/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
+++ b/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENT\doc\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489379E7-4944-489F-9288-4A6FB95DC604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C4489-E421-471E-A29F-1158F6570948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
   <si>
     <t>字段名</t>
   </si>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>optical_cable.光缆表.xlsm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南省资源总表.xlsm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,23 +788,163 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
+++ b/策划案/Java/设备批量注册配置工具/Excel/INDEX/INDEX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCUMENT\doc\DesignerDoc\策划案\Java\设备批量注册配置工具\Excel\INDEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6C4489-E421-471E-A29F-1158F6570948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5A3FF-A091-4A0D-8775-8968BF9868C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1110" yWindow="870" windowWidth="27285" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>repeater.局站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bury_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,11 +171,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optical_cable.光缆表.xlsm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>河南省资源总表.xlsm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum.枚举.xlsm</t>
+  </si>
+  <si>
+    <t>山东省资源总表.xlsm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +513,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -603,18 +602,18 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -634,13 +633,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -660,13 +659,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -686,13 +685,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -701,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -712,10 +711,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -727,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -738,13 +737,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -753,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -764,14 +763,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -779,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -793,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -811,18 +810,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -842,13 +841,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -868,13 +867,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -883,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -894,14 +893,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -909,7 +908,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -920,14 +919,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -935,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16">
         <v>4</v>
